--- a/data/trans_dic/P22_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22_R3-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1226134409004683</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09248648417460428</v>
+        <v>0.0924864841746043</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1042871845419549</v>
@@ -697,7 +697,7 @@
         <v>0.1386608524415068</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08930226033844535</v>
+        <v>0.08930226033844534</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07734923473242949</v>
+        <v>0.07945488246220692</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09905685728216444</v>
+        <v>0.09486715904457511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1193918147343838</v>
+        <v>0.1156301456479824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06536703346020066</v>
+        <v>0.06682994410975238</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07444500442881768</v>
+        <v>0.07453194412047622</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07034336511082091</v>
+        <v>0.07021322502936099</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09114126640745147</v>
+        <v>0.09010904443109856</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07414568464079034</v>
+        <v>0.07130451027870606</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08230363299833551</v>
+        <v>0.08317158909900883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09455969534507794</v>
+        <v>0.0923210652094397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.116589519010954</v>
+        <v>0.1145600266943484</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07446003138026487</v>
+        <v>0.07354136632387946</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1356246691209265</v>
+        <v>0.1338718563453507</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.166736791360995</v>
+        <v>0.1697338351490376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1949467238422239</v>
+        <v>0.1920134617658015</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1101069131155488</v>
+        <v>0.1134960596601046</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1464633426569553</v>
+        <v>0.1466047778831925</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1441489974001851</v>
+        <v>0.1477107540901138</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1605000701248103</v>
+        <v>0.1609570063317455</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1158653177670089</v>
+        <v>0.1160352757225199</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1270831651904759</v>
+        <v>0.1265319762157555</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1489512205768817</v>
+        <v>0.1424384667810668</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1674161079353277</v>
+        <v>0.1685932343489913</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1071448644859386</v>
+        <v>0.1063625519440516</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.07170422482615056</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04977793754746448</v>
+        <v>0.04977793754746449</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.08742264218480478</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08792435758598206</v>
+        <v>0.08893049561417975</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1357966246844789</v>
+        <v>0.1365390842077556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1176543509180806</v>
+        <v>0.1127318827002861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08342409242753086</v>
+        <v>0.08207396503813075</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03375520119516433</v>
+        <v>0.03416536736755481</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0457044053265241</v>
+        <v>0.04737763782634652</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04661900666561452</v>
+        <v>0.04761469663575554</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0345493530950722</v>
+        <v>0.03385490547776302</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0704037611056222</v>
+        <v>0.0675478021865686</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1053690862562763</v>
+        <v>0.1021815537002991</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08803425497836677</v>
+        <v>0.08626953691393976</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06494343062169157</v>
+        <v>0.06425097082545284</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1575222710832494</v>
+        <v>0.1628218093041565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2236467063852765</v>
+        <v>0.2247322093347767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1921654923509265</v>
+        <v>0.1911641721141135</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1445567314869924</v>
+        <v>0.1408600169172692</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08360559589418447</v>
+        <v>0.08155382254177498</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1168883445531122</v>
+        <v>0.1157359861662493</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1038842768183963</v>
+        <v>0.1044032869459174</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07050654336489878</v>
+        <v>0.07004517544059721</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1138451867230301</v>
+        <v>0.1096470272386957</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1626814726039549</v>
+        <v>0.1599887980200594</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1374581110176077</v>
+        <v>0.1344761167190586</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1001031650609738</v>
+        <v>0.09998418310130061</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.007171073020299852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.004974348014294747</v>
+        <v>0.004974348014294746</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04359443299716569</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001684387831769905</v>
+        <v>0.001675684458415442</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003049281973357775</v>
+        <v>0.003054651437582584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001952134526202042</v>
+        <v>0.001961196289377835</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01740947910043835</v>
+        <v>0.01847790021125468</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01188067037469283</v>
+        <v>0.01225480102447384</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006338495304866691</v>
+        <v>0.007621330333975614</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003745714029358234</v>
+        <v>0.003354131083865339</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007644006792898857</v>
+        <v>0.007188333346960558</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008728624790349348</v>
+        <v>0.007958630717881275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00473762330877604</v>
+        <v>0.004784898832412905</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002005173256342703</v>
+        <v>0.002174333980409893</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01757292775788183</v>
+        <v>0.01641628392010581</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0202667143587928</v>
+        <v>0.02250082409711133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01948978909977492</v>
+        <v>0.02047012102614256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02209580758174973</v>
+        <v>0.02006306748234695</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08662566061035971</v>
+        <v>0.0854600656364821</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05946576071278929</v>
+        <v>0.06199689976046831</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06444247143885749</v>
+        <v>0.06136465946605823</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03138729248541103</v>
+        <v>0.03101588259539977</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02743474808847001</v>
+        <v>0.02578491822356453</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0283188235032274</v>
+        <v>0.02723560998860985</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02390092320701665</v>
+        <v>0.02316271872720704</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02011722748674661</v>
+        <v>0.0207155037107335</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004368409198183133</v>
+        <v>0.004424578805745274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001748535595402935</v>
+        <v>0.001684805472152398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009900800980113042</v>
+        <v>0.0099930267217178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004978478829001002</v>
+        <v>0.005075435422485924</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01785027558517023</v>
+        <v>0.01700710109523485</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01065292097761627</v>
+        <v>0.01027093567215261</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01118563019848056</v>
+        <v>0.01107342726823541</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0044486933275499</v>
+        <v>0.004930224396833223</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01108914877881828</v>
+        <v>0.01026605092743756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0067082298793682</v>
+        <v>0.006691630362380041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01236473888989969</v>
+        <v>0.01247516762078012</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.006058999834513014</v>
+        <v>0.00613524060521842</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01494756890355586</v>
+        <v>0.0144863433205085</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.00990698124449706</v>
+        <v>0.01143965817302409</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02580372111499616</v>
+        <v>0.02555811821334751</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02351476000780676</v>
+        <v>0.0233896079276412</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04302142879926657</v>
+        <v>0.04229716400351773</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03343121728220651</v>
+        <v>0.03389016517737902</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03176518224468009</v>
+        <v>0.03125916095498887</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01422173514410236</v>
+        <v>0.01548819445792788</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02240819474747851</v>
+        <v>0.02127649474150118</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01675906735387745</v>
+        <v>0.01698867991119744</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0244470202076711</v>
+        <v>0.02443318749176032</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01725617927654932</v>
+        <v>0.01657102214149113</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.005112511267270949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.004454485592076276</v>
+        <v>0.004454485592076275</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03425315901993878</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01377624028696179</v>
+        <v>0.01375654018914099</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001774956734180137</v>
+        <v>0.001736211258281561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001601471997075975</v>
+        <v>0.001597855648602597</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01935142067211692</v>
+        <v>0.02049023983096115</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.006403075763568484</v>
+        <v>0.005409521973004872</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001327459204542015</v>
+        <v>0.001312286248127765</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.001492451524246244</v>
+        <v>0.00152384084381464</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02074578207224674</v>
+        <v>0.02004941424276324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005591735001811977</v>
+        <v>0.006028578785229409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002173534183805096</v>
+        <v>0.002325139668807867</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.00198865804928004</v>
+        <v>0.001906949988314493</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04763558436597388</v>
+        <v>0.04731787905420809</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0175933405486893</v>
+        <v>0.01686707183510401</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01388220889910715</v>
+        <v>0.01371729344714145</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01712479556796814</v>
+        <v>0.01697185505088861</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05309303260446592</v>
+        <v>0.05397798868249738</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02339528209853403</v>
+        <v>0.02154976297112026</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01517031570695539</v>
+        <v>0.01583533275998119</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.008859099876401627</v>
+        <v>0.009185640625628946</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04535285878951015</v>
+        <v>0.04509872853710577</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01724434371561983</v>
+        <v>0.01709547604283449</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01018206958939012</v>
+        <v>0.01111405661809482</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01003509217359175</v>
+        <v>0.009650870094195746</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02144490208671595</v>
+        <v>0.02182682111197064</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02753936943734601</v>
+        <v>0.02870392888247269</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01510797087695873</v>
+        <v>0.01471802559484638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01079563385365381</v>
+        <v>0.01225650851119067</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02895588894193486</v>
+        <v>0.02923080437220061</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02021213803186997</v>
+        <v>0.02002859696786769</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01604385356775604</v>
+        <v>0.01652768196942958</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01442786540629401</v>
+        <v>0.01480058651882997</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02856520100293099</v>
+        <v>0.02960261374017987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02410343974006147</v>
+        <v>0.0238736697358489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01910898601340806</v>
+        <v>0.01891146805028473</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01620821314675791</v>
+        <v>0.01788368339675842</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06674723977848208</v>
+        <v>0.06608733502764977</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.085427065152758</v>
+        <v>0.08899606911048</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05671053438276097</v>
+        <v>0.05989937476093239</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1049307692021414</v>
+        <v>0.1050532823907749</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0491863225226269</v>
+        <v>0.04997248324490656</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04256160818001194</v>
+        <v>0.04099380225851386</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03639079106112979</v>
+        <v>0.03686980451175109</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03186908143193547</v>
+        <v>0.03118647822811345</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04827159380634303</v>
+        <v>0.04854436203486494</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04579510865569406</v>
+        <v>0.04465119316842529</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0381674511739975</v>
+        <v>0.03685149055744232</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04095630616650765</v>
+        <v>0.04352898379090253</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.03437092855747367</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.02684925564997758</v>
+        <v>0.02684925564997757</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.04134178976433785</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03351423832598724</v>
+        <v>0.03316904725456163</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0392575646935121</v>
+        <v>0.0386148242042688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03970511579453032</v>
+        <v>0.03928006369796601</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03038420996573767</v>
+        <v>0.03072611321622797</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0361981969791131</v>
+        <v>0.03682473963421681</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02826596531545139</v>
+        <v>0.02855125056912998</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0283370307623904</v>
+        <v>0.02858469929379015</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02258265269991691</v>
+        <v>0.02310168975467938</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03628716604900963</v>
+        <v>0.03655878497711652</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03534964474378045</v>
+        <v>0.03542291264141742</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03613537867756176</v>
+        <v>0.03556303538668334</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02794996481047824</v>
+        <v>0.02782846308878876</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04660235634234795</v>
+        <v>0.04795155210013936</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05559363379275011</v>
+        <v>0.0542382952909051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05426961083791494</v>
+        <v>0.05453297360371565</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04499433378320931</v>
+        <v>0.04477683932994323</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05043526082847152</v>
+        <v>0.05063272307397437</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0415052644657457</v>
+        <v>0.04177477648760382</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04137681158430283</v>
+        <v>0.04108374561027866</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03136320304798591</v>
+        <v>0.03229130137486549</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04637910794123221</v>
+        <v>0.04644583676322191</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0455908911465692</v>
+        <v>0.04585080358703828</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0459065457568611</v>
+        <v>0.04525434479473994</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03595110493018093</v>
+        <v>0.03619619869110791</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>36530</v>
+        <v>37524</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43309</v>
+        <v>41477</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51230</v>
+        <v>49616</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35992</v>
+        <v>36798</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22831</v>
+        <v>22857</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22120</v>
+        <v>22079</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31631</v>
+        <v>31273</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>36214</v>
+        <v>34826</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>64111</v>
+        <v>64787</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>71077</v>
+        <v>69395</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>90491</v>
+        <v>88915</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>77366</v>
+        <v>76412</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>64052</v>
+        <v>63224</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>72899</v>
+        <v>74209</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83650</v>
+        <v>82391</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>60627</v>
+        <v>62493</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>44917</v>
+        <v>44961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45328</v>
+        <v>46448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>55702</v>
+        <v>55861</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>56590</v>
+        <v>56673</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>98992</v>
+        <v>98562</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>111961</v>
+        <v>107066</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>129940</v>
+        <v>130853</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>111327</v>
+        <v>110514</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32262</v>
+        <v>32632</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>56871</v>
+        <v>57182</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>44269</v>
+        <v>42417</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40312</v>
+        <v>39659</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12552</v>
+        <v>12705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15449</v>
+        <v>16014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17355</v>
+        <v>17726</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14619</v>
+        <v>14325</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>52014</v>
+        <v>49904</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>79744</v>
+        <v>77332</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>65897</v>
+        <v>64576</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>58862</v>
+        <v>58234</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>57800</v>
+        <v>59745</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>93663</v>
+        <v>94117</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72305</v>
+        <v>71928</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>69852</v>
+        <v>68065</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31090</v>
+        <v>30327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39510</v>
+        <v>39120</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38673</v>
+        <v>38867</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29834</v>
+        <v>29639</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>84109</v>
+        <v>81007</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>123119</v>
+        <v>121081</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>102892</v>
+        <v>100660</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>90729</v>
+        <v>90621</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2921</v>
+        <v>3100</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3091</v>
+        <v>3188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1053</v>
+        <v>1266</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>702</v>
+        <v>629</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5422</v>
+        <v>5099</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7764</v>
+        <v>7080</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3260</v>
+        <v>3292</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1322</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9517</v>
+        <v>8891</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12756</v>
+        <v>14162</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10172</v>
+        <v>10684</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10421</v>
+        <v>9462</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14534</v>
+        <v>14339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15469</v>
+        <v>16127</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10705</v>
+        <v>10194</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5885</v>
+        <v>5815</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19461</v>
+        <v>18291</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>25191</v>
+        <v>24227</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16445</v>
+        <v>15937</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>13259</v>
+        <v>13654</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5396</v>
+        <v>5465</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2025</v>
+        <v>1951</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11373</v>
+        <v>11479</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5635</v>
+        <v>5745</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12750</v>
+        <v>12148</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8167</v>
+        <v>7874</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9198</v>
+        <v>9106</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3831</v>
+        <v>4246</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21618</v>
+        <v>20013</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>12911</v>
+        <v>12879</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24371</v>
+        <v>24589</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12076</v>
+        <v>12228</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18463</v>
+        <v>17893</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11473</v>
+        <v>13247</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29641</v>
+        <v>29359</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26615</v>
+        <v>26473</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30730</v>
+        <v>30212</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25630</v>
+        <v>25982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26121</v>
+        <v>25705</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12248</v>
+        <v>13339</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43684</v>
+        <v>41478</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>32256</v>
+        <v>32698</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48186</v>
+        <v>48158</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34392</v>
+        <v>33027</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4829</v>
+        <v>4822</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11006</v>
+        <v>11654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4876</v>
+        <v>4119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1239</v>
+        <v>1265</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19072</v>
+        <v>18432</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>7113</v>
+        <v>7669</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2949</v>
+        <v>3155</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2780</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16699</v>
+        <v>16588</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8983</v>
+        <v>8612</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8601</v>
+        <v>8498</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9726</v>
+        <v>9639</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30197</v>
+        <v>30700</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17816</v>
+        <v>16411</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11185</v>
+        <v>11675</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7354</v>
+        <v>7625</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>41693</v>
+        <v>41460</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>21937</v>
+        <v>21747</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13815</v>
+        <v>15080</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>14030</v>
+        <v>13493</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6375</v>
+        <v>6489</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7350</v>
+        <v>7661</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4338</v>
+        <v>4226</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2561</v>
+        <v>2908</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>36100</v>
+        <v>36443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>22422</v>
+        <v>22219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>17339</v>
+        <v>17862</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>12181</v>
+        <v>12496</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>44105</v>
+        <v>45707</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>33172</v>
+        <v>32856</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>26139</v>
+        <v>25869</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>17529</v>
+        <v>19341</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19842</v>
+        <v>19646</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22799</v>
+        <v>23751</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16284</v>
+        <v>17200</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>24893</v>
+        <v>24922</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>61322</v>
+        <v>62302</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>47216</v>
+        <v>45477</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>39329</v>
+        <v>39847</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>26906</v>
+        <v>26330</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>74532</v>
+        <v>74953</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>63025</v>
+        <v>61450</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>52209</v>
+        <v>50409</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>44295</v>
+        <v>47077</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>109383</v>
+        <v>108257</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>134297</v>
+        <v>132099</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>134309</v>
+        <v>132871</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>104597</v>
+        <v>105774</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>122209</v>
+        <v>124324</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>100348</v>
+        <v>101361</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>99910</v>
+        <v>100784</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>82080</v>
+        <v>83967</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>240942</v>
+        <v>242746</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>246424</v>
+        <v>246935</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>249639</v>
+        <v>245685</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>197806</v>
+        <v>196946</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>152100</v>
+        <v>156503</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>190182</v>
+        <v>185545</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>183575</v>
+        <v>184466</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>154892</v>
+        <v>154143</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>170274</v>
+        <v>170941</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>147349</v>
+        <v>148306</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>145886</v>
+        <v>144853</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>113995</v>
+        <v>117368</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>307952</v>
+        <v>308395</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>317817</v>
+        <v>319628</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>317143</v>
+        <v>312637</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>254431</v>
+        <v>256166</v>
       </c>
     </row>
     <row r="32">
